--- a/src/assets/data/homeSheet2.xlsx
+++ b/src/assets/data/homeSheet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vsfintech data\vsf-live-gh\user_side_vsf\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC0830F-CEDC-46D4-A19B-EC29570F65C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB303AA7-866A-4D56-9D77-7B39B72D5295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,9 +175,6 @@
     <t>NIFTY INDIA DEFENCE</t>
   </si>
   <si>
-    <t>NFTINDCONS</t>
-  </si>
-  <si>
     <t>NIFTY DIVIDEND OPPORTUNITIES 50</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>NFTINDCORPGRPITG25PC</t>
+  </si>
+  <si>
+    <t>NFTDEF</t>
   </si>
 </sst>
 </file>
@@ -760,7 +760,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -950,361 +950,361 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" t="s">
         <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" t="s">
         <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" t="s">
         <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" t="s">
         <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" t="s">
         <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" t="s">
         <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
         <v>88</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
         <v>92</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" t="s">
         <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" t="s">
         <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" t="s">
         <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" t="s">
         <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
         <v>115</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" t="s">
         <v>117</v>
-      </c>
-      <c r="D30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
         <v>119</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" t="s">
         <v>121</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
         <v>123</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" t="s">
         <v>125</v>
-      </c>
-      <c r="D32" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
         <v>127</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" t="s">
         <v>129</v>
-      </c>
-      <c r="D33" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
         <v>131</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
         <v>134</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
         <v>137</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" t="s">
         <v>139</v>
-      </c>
-      <c r="D36" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
         <v>141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
         <v>145</v>
-      </c>
-      <c r="B40" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
